--- a/biology/Botanique/Mexipedium_xerophyticum/Mexipedium_xerophyticum.xlsx
+++ b/biology/Botanique/Mexipedium_xerophyticum/Mexipedium_xerophyticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexipedium xerophyticum est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées), découverte en 1990 au Mexique. C'est la seule espèce décrite du genre Mexipedium.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une orchidée de petite taille produisant des touffes de feuilles disposées en éventail, composées de 4 à 5 feuilles oblongues, vert franc et charnues. C'est au cœur de ses rosettes que naissent les inforescences. Portées par une tige grêle et courte les fleurs, au nombre de 2-3, s'épanouissent l'une après l'autre. Les fleurs possèdent le labelle renflé typique des Cypripedioideae, avec des pétales latéraux enroulés. Entièrement blanche, seul le staminode est rose. La plante produit beaucoup de stolons.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phragmipedium xerophyticum Soto Arenas, Salazar &amp; Hágsater
 Paphiopedilum xerophyticum (Soto Arenas, Salazar &amp; Hágsater) V.A.Albert &amp; Börge Pett.</t>
